--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_18_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_18_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27923.79381980671</v>
+        <v>5556834.970141537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27923.79381980671</v>
+        <v>5556834.970141537</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>146858.9814651374</v>
+        <v>14291044.73019042</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>146858.9814651374</v>
+        <v>14291044.73019042</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494449048.918511</v>
+        <v>50151893.7663288</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16880.70175453021</v>
+        <v>1346969.061476469</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32042.95654007095</v>
+        <v>2399903.976366887</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47216.9853703378</v>
+        <v>3452838.891257306</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62456.1815044971</v>
+        <v>4504844.724679789</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>77695.37763865637</v>
+        <v>5556850.55810227</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>92934.57377281565</v>
+        <v>6608856.391524752</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>108164.2152508687</v>
+        <v>7665391.612901513</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>123388.8676380127</v>
+        <v>8720934.005187361</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>139332.5614700372</v>
+        <v>9233851.469218757</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>155873.5207566073</v>
+        <v>9865624.758704701</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>172414.4800431773</v>
+        <v>10497398.04819064</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>188955.4393297473</v>
+        <v>11129171.33767658</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>205496.3986163173</v>
+        <v>11760944.62716253</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>222037.3579028876</v>
+        <v>12392717.91664847</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>238572.8582341792</v>
+        <v>13020060.09122137</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>152</v>
@@ -27052,19 +27052,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>90</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
